--- a/Diagramas/Lista materiales.xlsx
+++ b/Diagramas/Lista materiales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>CANTIDAD</t>
   </si>
@@ -32,9 +32,6 @@
     <t>COMPONENTE</t>
   </si>
   <si>
-    <t>WEMOS D1</t>
-  </si>
-  <si>
     <t>NOMBRE COMERCIAL</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>PRECIO PATAGONIA TEC</t>
+  </si>
+  <si>
+    <t>NODEMCU ESP8266</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,13 +533,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -548,16 +548,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -565,16 +562,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="8">
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -582,16 +579,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="D6" s="8">
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -616,16 +613,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="8">
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -633,30 +630,30 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,16 +678,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8">
         <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="8">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -729,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,13 +743,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,13 +771,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -788,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
